--- a/formulieren/01000.xlsx
+++ b/formulieren/01000.xlsx
@@ -421,16 +421,16 @@
         <v>01010</v>
       </c>
       <c r="H1" t="str">
+        <v>01060</v>
+      </c>
+      <c r="I1" t="str">
         <v>01050</v>
       </c>
-      <c r="I1" t="str">
-        <v>01060</v>
-      </c>
       <c r="J1" t="str">
+        <v>01850</v>
+      </c>
+      <c r="K1" t="str">
         <v>01061</v>
-      </c>
-      <c r="K1" t="str">
-        <v>01850</v>
       </c>
     </row>
     <row r="2">
@@ -462,10 +462,10 @@
         <v/>
       </c>
       <c r="J2" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="3">
@@ -491,16 +491,16 @@
         <v/>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I3" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K3" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -526,10 +526,10 @@
         <v>x</v>
       </c>
       <c r="H4" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J4" t="str">
         <v/>
@@ -561,10 +561,10 @@
         <v>x</v>
       </c>
       <c r="H5" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J5" t="str">
         <v/>
@@ -672,10 +672,10 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="9">
@@ -707,10 +707,10 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="10">
@@ -736,10 +736,10 @@
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J10" t="str">
         <v/>
@@ -771,10 +771,10 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J11" t="str">
         <v/>
@@ -876,16 +876,16 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K14" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         <v/>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K15" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -946,10 +946,10 @@
         <v/>
       </c>
       <c r="H16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -981,10 +981,10 @@
         <v/>
       </c>
       <c r="H17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -1016,16 +1016,16 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K18" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="19">
@@ -1051,16 +1051,16 @@
         <v/>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K19" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -1121,10 +1121,10 @@
         <v>x</v>
       </c>
       <c r="H21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -1156,10 +1156,10 @@
         <v>x</v>
       </c>
       <c r="H22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J22" t="str">
         <v/>
@@ -1191,10 +1191,10 @@
         <v>x</v>
       </c>
       <c r="H23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J23" t="str">
         <v/>
@@ -1226,10 +1226,10 @@
         <v>x</v>
       </c>
       <c r="H24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1261,10 +1261,10 @@
         <v>x</v>
       </c>
       <c r="H25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J25" t="str">
         <v/>
@@ -1296,10 +1296,10 @@
         <v/>
       </c>
       <c r="H26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J26" t="str">
         <v/>
@@ -1331,10 +1331,10 @@
         <v/>
       </c>
       <c r="H27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -1366,10 +1366,10 @@
         <v>x</v>
       </c>
       <c r="H28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -1401,10 +1401,10 @@
         <v>x</v>
       </c>
       <c r="H29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J29" t="str">
         <v/>
@@ -1436,10 +1436,10 @@
         <v>x</v>
       </c>
       <c r="H30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J30" t="str">
         <v/>
@@ -1471,10 +1471,10 @@
         <v>x</v>
       </c>
       <c r="H31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J31" t="str">
         <v/>
@@ -1506,10 +1506,10 @@
         <v>x</v>
       </c>
       <c r="H32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J32" t="str">
         <v/>
@@ -1541,10 +1541,10 @@
         <v/>
       </c>
       <c r="H33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J33" t="str">
         <v/>
@@ -1576,10 +1576,10 @@
         <v/>
       </c>
       <c r="H34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J34" t="str">
         <v/>
@@ -1611,10 +1611,10 @@
         <v>x</v>
       </c>
       <c r="H35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -1646,10 +1646,10 @@
         <v>x</v>
       </c>
       <c r="H36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J36" t="str">
         <v/>
@@ -1681,10 +1681,10 @@
         <v>x</v>
       </c>
       <c r="H37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -1716,10 +1716,10 @@
         <v>x</v>
       </c>
       <c r="H38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J38" t="str">
         <v/>
@@ -1751,10 +1751,10 @@
         <v>x</v>
       </c>
       <c r="H39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J39" t="str">
         <v/>
@@ -1786,10 +1786,10 @@
         <v/>
       </c>
       <c r="H40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -1821,10 +1821,10 @@
         <v/>
       </c>
       <c r="H41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J41" t="str">
         <v/>
@@ -1856,10 +1856,10 @@
         <v>x</v>
       </c>
       <c r="H42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J42" t="str">
         <v/>
@@ -1891,10 +1891,10 @@
         <v>x</v>
       </c>
       <c r="H43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I43" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J43" t="str">
         <v/>
@@ -1926,10 +1926,10 @@
         <v>x</v>
       </c>
       <c r="H44" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J44" t="str">
         <v/>
@@ -1961,10 +1961,10 @@
         <v>x</v>
       </c>
       <c r="H45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -1996,10 +1996,10 @@
         <v>x</v>
       </c>
       <c r="H46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -2031,10 +2031,10 @@
         <v/>
       </c>
       <c r="H47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J47" t="str">
         <v/>
@@ -2066,10 +2066,10 @@
         <v/>
       </c>
       <c r="H48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J48" t="str">
         <v/>
@@ -2101,10 +2101,10 @@
         <v>x</v>
       </c>
       <c r="H49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I49" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -2136,10 +2136,10 @@
         <v>x</v>
       </c>
       <c r="H50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J50" t="str">
         <v/>
@@ -2171,10 +2171,10 @@
         <v>x</v>
       </c>
       <c r="H51" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -2206,10 +2206,10 @@
         <v>x</v>
       </c>
       <c r="H52" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I52" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J52" t="str">
         <v/>
@@ -2241,10 +2241,10 @@
         <v>x</v>
       </c>
       <c r="H53" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J53" t="str">
         <v/>
@@ -2276,10 +2276,10 @@
         <v>x</v>
       </c>
       <c r="H54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J54" t="str">
         <v/>
@@ -2311,10 +2311,10 @@
         <v>x</v>
       </c>
       <c r="H55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J55" t="str">
         <v/>
@@ -2346,10 +2346,10 @@
         <v>x</v>
       </c>
       <c r="H56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J56" t="str">
         <v/>
@@ -2381,10 +2381,10 @@
         <v>x</v>
       </c>
       <c r="H57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J57" t="str">
         <v/>
@@ -2416,10 +2416,10 @@
         <v>x</v>
       </c>
       <c r="H58" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I58" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J58" t="str">
         <v/>
@@ -2451,10 +2451,10 @@
         <v/>
       </c>
       <c r="H59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J59" t="str">
         <v/>
@@ -2486,10 +2486,10 @@
         <v/>
       </c>
       <c r="H60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J60" t="str">
         <v/>
@@ -2521,10 +2521,10 @@
         <v>x</v>
       </c>
       <c r="H61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I61" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J61" t="str">
         <v/>
@@ -2556,10 +2556,10 @@
         <v>x</v>
       </c>
       <c r="H62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I62" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -2591,10 +2591,10 @@
         <v>x</v>
       </c>
       <c r="H63" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I63" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J63" t="str">
         <v/>
@@ -2626,10 +2626,10 @@
         <v>x</v>
       </c>
       <c r="H64" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I64" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J64" t="str">
         <v/>
@@ -2661,10 +2661,10 @@
         <v>x</v>
       </c>
       <c r="H65" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I65" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J65" t="str">
         <v/>
@@ -2696,10 +2696,10 @@
         <v>x</v>
       </c>
       <c r="H66" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J66" t="str">
         <v/>
@@ -2731,10 +2731,10 @@
         <v>x</v>
       </c>
       <c r="H67" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J67" t="str">
         <v/>
@@ -2766,10 +2766,10 @@
         <v>x</v>
       </c>
       <c r="H68" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J68" t="str">
         <v/>
@@ -2801,10 +2801,10 @@
         <v>x</v>
       </c>
       <c r="H69" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I69" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J69" t="str">
         <v/>
@@ -2836,10 +2836,10 @@
         <v>x</v>
       </c>
       <c r="H70" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I70" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J70" t="str">
         <v/>
@@ -2871,10 +2871,10 @@
         <v>x</v>
       </c>
       <c r="H71" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I71" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J71" t="str">
         <v/>
@@ -2906,10 +2906,10 @@
         <v>x</v>
       </c>
       <c r="H72" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I72" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J72" t="str">
         <v/>
@@ -2941,10 +2941,10 @@
         <v>x</v>
       </c>
       <c r="H73" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I73" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J73" t="str">
         <v/>
@@ -2976,10 +2976,10 @@
         <v>x</v>
       </c>
       <c r="H74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I74" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J74" t="str">
         <v/>
@@ -3011,10 +3011,10 @@
         <v>x</v>
       </c>
       <c r="H75" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I75" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J75" t="str">
         <v/>
@@ -3092,22 +3092,22 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P315</v>
+      </c>
+      <c r="H1" t="str">
+        <v>P353</v>
+      </c>
+      <c r="I1" t="str">
+        <v>P357</v>
+      </c>
+      <c r="J1" t="str">
         <v>P302</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>P306</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>P311</v>
-      </c>
-      <c r="J1" t="str">
-        <v>P315</v>
-      </c>
-      <c r="K1" t="str">
-        <v>P353</v>
-      </c>
-      <c r="L1" t="str">
-        <v>P357</v>
       </c>
       <c r="M1" t="str">
         <v>P359</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>n/a</v>
+        <v>Dekking Passagiers auto</v>
       </c>
       <c r="B6" t="str">
-        <v>10630</v>
+        <v>12357</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -3324,13 +3324,13 @@
         <v/>
       </c>
       <c r="F6" t="str">
-        <v>04                                                                                         10630</v>
+        <v>04 Dekking Passagiers auto  12357</v>
       </c>
       <c r="G6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I6" t="str">
         <v/>
@@ -3339,7 +3339,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L6" t="str">
         <v/>
@@ -3351,7 +3351,7 @@
         <v>x</v>
       </c>
       <c r="O6" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -3359,13 +3359,13 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>10630</v>
+        <v>12357</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>Rechts</v>
+        <v>Links</v>
       </c>
       <c r="E7" t="str">
         <v>verwijderen</v>
@@ -3374,10 +3374,10 @@
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -3386,7 +3386,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L7" t="str">
         <v/>
@@ -3398,15 +3398,15 @@
         <v>x</v>
       </c>
       <c r="O7" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Dekking Passagiers auto</v>
+        <v>Eindleeftijd</v>
       </c>
       <c r="B8" t="str">
-        <v>12357</v>
+        <v>10067 jaar</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -3418,7 +3418,7 @@
         <v/>
       </c>
       <c r="F8" t="str">
-        <v>04 Dekking Passagiers auto  12357</v>
+        <v>04 Eindleeftijd           10067 jaar</v>
       </c>
       <c r="G8" t="str">
         <v/>
@@ -3436,13 +3436,13 @@
         <v>x</v>
       </c>
       <c r="L8" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M8" t="str">
         <v/>
       </c>
       <c r="N8" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O8" t="str">
         <v/>
@@ -3453,10 +3453,10 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>12357</v>
+        <v>10067</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D9" t="str">
         <v>Links</v>
@@ -3483,13 +3483,13 @@
         <v>x</v>
       </c>
       <c r="L9" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M9" t="str">
         <v/>
       </c>
       <c r="N9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O9" t="str">
         <v/>
@@ -3500,7 +3500,7 @@
         <v>Eindleeftijd</v>
       </c>
       <c r="B10" t="str">
-        <v>10067 jaar</v>
+        <v>10067</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -3512,16 +3512,16 @@
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>04 Eindleeftijd           10067 jaar</v>
+        <v>04 Eindleeftijd          10067</v>
       </c>
       <c r="G10" t="str">
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J10" t="str">
         <v/>
@@ -3539,7 +3539,7 @@
         <v/>
       </c>
       <c r="O10" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="11">
@@ -3565,10 +3565,10 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J11" t="str">
         <v/>
@@ -3586,15 +3586,15 @@
         <v/>
       </c>
       <c r="O11" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Eindleeftijd</v>
+        <v>Stijgingspercentage</v>
       </c>
       <c r="B12" t="str">
-        <v>10067</v>
+        <v>10104</v>
       </c>
       <c r="C12" t="str">
         <v/>
@@ -3606,10 +3606,10 @@
         <v/>
       </c>
       <c r="F12" t="str">
-        <v>04 Eindleeftijd          10067</v>
+        <v>04 Stijgingspercentage    10104</v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -3633,7 +3633,7 @@
         <v/>
       </c>
       <c r="O12" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -3641,7 +3641,7 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>10067</v>
+        <v>10104</v>
       </c>
       <c r="C13" t="str">
         <v>Getal exclusief decimalen</v>
@@ -3650,13 +3650,13 @@
         <v>Links</v>
       </c>
       <c r="E13" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -3680,15 +3680,15 @@
         <v/>
       </c>
       <c r="O13" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Stijgingspercentage</v>
+        <v>Verhoogde uitkering invaliditeit</v>
       </c>
       <c r="B14" t="str">
-        <v>10104</v>
+        <v>12442</v>
       </c>
       <c r="C14" t="str">
         <v/>
@@ -3700,7 +3700,7 @@
         <v/>
       </c>
       <c r="F14" t="str">
-        <v>04 Stijgingspercentage    10104</v>
+        <v>04 Verhoogde uitkering invaliditeit  12442</v>
       </c>
       <c r="G14" t="str">
         <v/>
@@ -3709,10 +3709,10 @@
         <v/>
       </c>
       <c r="I14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K14" t="str">
         <v/>
@@ -3735,10 +3735,10 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>10104</v>
+        <v>12442</v>
       </c>
       <c r="C15" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D15" t="str">
         <v>Links</v>
@@ -3756,10 +3756,10 @@
         <v/>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K15" t="str">
         <v/>
@@ -3779,10 +3779,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Verhoogde uitkering invaliditeit</v>
+        <v>Beroep</v>
       </c>
       <c r="B16" t="str">
-        <v>12442</v>
+        <v>80949</v>
       </c>
       <c r="C16" t="str">
         <v/>
@@ -3794,7 +3794,7 @@
         <v/>
       </c>
       <c r="F16" t="str">
-        <v>04 Verhoogde uitkering invaliditeit  12442</v>
+        <v>05 Beroep                 80949</v>
       </c>
       <c r="G16" t="str">
         <v/>
@@ -3809,10 +3809,10 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M16" t="str">
         <v/>
@@ -3829,16 +3829,16 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>12442</v>
+        <v>80949</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D17" t="str">
         <v>Links</v>
       </c>
       <c r="E17" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -3856,10 +3856,10 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M17" t="str">
         <v/>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Beroep</v>
+        <v>Dekking Bijrijders motor</v>
       </c>
       <c r="B18" t="str">
-        <v>80949</v>
+        <v>11985</v>
       </c>
       <c r="C18" t="str">
         <v/>
@@ -3888,7 +3888,7 @@
         <v/>
       </c>
       <c r="F18" t="str">
-        <v>05 Beroep                 80949</v>
+        <v>05 Dekking Bijrijders motor 11985</v>
       </c>
       <c r="G18" t="str">
         <v/>
@@ -3912,7 +3912,7 @@
         <v/>
       </c>
       <c r="N18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O18" t="str">
         <v/>
@@ -3923,10 +3923,10 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>80949</v>
+        <v>11985</v>
       </c>
       <c r="C19" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D19" t="str">
         <v>Links</v>
@@ -3959,7 +3959,7 @@
         <v/>
       </c>
       <c r="N19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O19" t="str">
         <v/>
@@ -3967,10 +3967,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Dekking Bijrijders motor</v>
+        <v>Meeverzekerd</v>
       </c>
       <c r="B20" t="str">
-        <v>11985</v>
+        <v>12577</v>
       </c>
       <c r="C20" t="str">
         <v/>
@@ -3982,7 +3982,7 @@
         <v/>
       </c>
       <c r="F20" t="str">
-        <v>05 Dekking Bijrijders motor 11985</v>
+        <v>05 Meeverzekerd                                                                             12577</v>
       </c>
       <c r="G20" t="str">
         <v/>
@@ -3997,7 +3997,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L20" t="str">
         <v/>
@@ -4006,10 +4006,10 @@
         <v/>
       </c>
       <c r="N20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O20" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="21">
@@ -4017,7 +4017,7 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>11985</v>
+        <v>12577</v>
       </c>
       <c r="C21" t="str">
         <v/>
@@ -4044,7 +4044,7 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L21" t="str">
         <v/>
@@ -4053,18 +4053,18 @@
         <v/>
       </c>
       <c r="N21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O21" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Meeverzekerd</v>
+        <v>Schoolongevallen</v>
       </c>
       <c r="B22" t="str">
-        <v>12577</v>
+        <v>13723</v>
       </c>
       <c r="C22" t="str">
         <v/>
@@ -4076,7 +4076,7 @@
         <v/>
       </c>
       <c r="F22" t="str">
-        <v>05 Meeverzekerd                                                                             12577</v>
+        <v>05 Schoolongevallen                  13723</v>
       </c>
       <c r="G22" t="str">
         <v/>
@@ -4085,7 +4085,7 @@
         <v/>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J22" t="str">
         <v/>
@@ -4103,7 +4103,7 @@
         <v/>
       </c>
       <c r="O22" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -4111,7 +4111,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>12577</v>
+        <v>13723</v>
       </c>
       <c r="C23" t="str">
         <v/>
@@ -4120,7 +4120,7 @@
         <v>Links</v>
       </c>
       <c r="E23" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F23" t="str">
         <v/>
@@ -4132,7 +4132,7 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J23" t="str">
         <v/>
@@ -4150,15 +4150,15 @@
         <v/>
       </c>
       <c r="O23" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Schoolongevallen</v>
+        <v>Verzekerde(n)</v>
       </c>
       <c r="B24" t="str">
-        <v>13723</v>
+        <v>Naam              Geboortedatum                                  10630</v>
       </c>
       <c r="C24" t="str">
         <v/>
@@ -4170,7 +4170,7 @@
         <v/>
       </c>
       <c r="F24" t="str">
-        <v>05 Schoolongevallen                  13723</v>
+        <v>05 Verzekerde(n)          Naam              Geboortedatum                                  10630</v>
       </c>
       <c r="G24" t="str">
         <v/>
@@ -4182,13 +4182,13 @@
         <v/>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K24" t="str">
         <v/>
       </c>
       <c r="L24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M24" t="str">
         <v/>
@@ -4205,16 +4205,16 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>13723</v>
+        <v>10630</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>Links</v>
+        <v>Rechts</v>
       </c>
       <c r="E25" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F25" t="str">
         <v/>
@@ -4229,13 +4229,13 @@
         <v/>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K25" t="str">
         <v/>
       </c>
       <c r="L25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M25" t="str">
         <v/>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Verzekerde(n)</v>
+        <v>n/a</v>
       </c>
       <c r="B26" t="str">
-        <v>Naam              Geboortedatum                                  10630</v>
+        <v>10630</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -4264,19 +4264,19 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>05 Verzekerde(n)          Naam              Geboortedatum                                  10630</v>
+        <v>06                                                                                          10630</v>
       </c>
       <c r="G26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I26" t="str">
         <v/>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -4288,10 +4288,10 @@
         <v/>
       </c>
       <c r="N26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O26" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="27">
@@ -4305,7 +4305,7 @@
         <v/>
       </c>
       <c r="D27" t="str">
-        <v>Rechts</v>
+        <v>Links</v>
       </c>
       <c r="E27" t="str">
         <v>verwijderen</v>
@@ -4314,16 +4314,16 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I27" t="str">
         <v/>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -4335,18 +4335,18 @@
         <v/>
       </c>
       <c r="N27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O27" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>n/a</v>
+        <v>- beroepsrisico</v>
       </c>
       <c r="B28" t="str">
-        <v>10631 10632 10630             10633</v>
+        <v>12577</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -4358,22 +4358,22 @@
         <v/>
       </c>
       <c r="F28" t="str">
-        <v>06                        10631 10632 10630             10633</v>
+        <v>06 - beroepsrisico            12577</v>
       </c>
       <c r="G28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L28" t="str">
         <v/>
@@ -4382,7 +4382,7 @@
         <v/>
       </c>
       <c r="N28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O28" t="str">
         <v>x</v>
@@ -4393,7 +4393,7 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>10631</v>
+        <v>12577</v>
       </c>
       <c r="C29" t="str">
         <v/>
@@ -4402,25 +4402,25 @@
         <v>Links</v>
       </c>
       <c r="E29" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L29" t="str">
         <v/>
@@ -4429,7 +4429,7 @@
         <v/>
       </c>
       <c r="N29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O29" t="str">
         <v>x</v>
@@ -4437,34 +4437,34 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v>Beroep medeverzekerde</v>
       </c>
       <c r="B30" t="str">
-        <v>10632</v>
+        <v>80970</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v/>
+        <v>06 Beroep medeverzekerde  80970</v>
       </c>
       <c r="G30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K30" t="str">
         <v>x</v>
@@ -4476,10 +4476,10 @@
         <v/>
       </c>
       <c r="N30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O30" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="31">
@@ -4487,10 +4487,10 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>10630</v>
+        <v>80970</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D31" t="str">
         <v>Links</v>
@@ -4502,16 +4502,16 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K31" t="str">
         <v>x</v>
@@ -4523,45 +4523,45 @@
         <v/>
       </c>
       <c r="N31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O31" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>Ongevallen motorrijtuigen</v>
       </c>
       <c r="B32" t="str">
-        <v>10633</v>
+        <v>13724</v>
       </c>
       <c r="C32" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E32" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>06 Ongevallen motorrijtuigen         13724</v>
       </c>
       <c r="G32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I32" t="str">
         <v>x</v>
       </c>
       <c r="J32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L32" t="str">
         <v/>
@@ -4570,30 +4570,30 @@
         <v/>
       </c>
       <c r="N32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O32" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>- beroepsrisico</v>
+        <v/>
       </c>
       <c r="B33" t="str">
-        <v>12577</v>
+        <v>13724</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E33" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F33" t="str">
-        <v>06 - beroepsrisico            12577</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <v/>
@@ -4602,7 +4602,7 @@
         <v/>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J33" t="str">
         <v/>
@@ -4620,30 +4620,30 @@
         <v/>
       </c>
       <c r="O33" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v/>
+        <v>Verzekerde(n)</v>
       </c>
       <c r="B34" t="str">
-        <v>12577</v>
+        <v>Naam              Geboortedatum</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E34" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F34" t="str">
-        <v/>
+        <v>06 Verzekerde(n)          Naam              Geboortedatum</v>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H34" t="str">
         <v/>
@@ -4655,10 +4655,10 @@
         <v/>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M34" t="str">
         <v/>
@@ -4667,15 +4667,15 @@
         <v/>
       </c>
       <c r="O34" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Beroep medeverzekerde</v>
+        <v>n/a</v>
       </c>
       <c r="B35" t="str">
-        <v>80970</v>
+        <v>10631 10632 10630             10633</v>
       </c>
       <c r="C35" t="str">
         <v/>
@@ -4687,10 +4687,10 @@
         <v/>
       </c>
       <c r="F35" t="str">
-        <v>06 Beroep medeverzekerde  80970</v>
+        <v>07                        10631 10632 10630             10633</v>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H35" t="str">
         <v>x</v>
@@ -4699,22 +4699,22 @@
         <v/>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M35" t="str">
         <v/>
       </c>
       <c r="N35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O35" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="36">
@@ -4722,22 +4722,22 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>80970</v>
+        <v>10631</v>
       </c>
       <c r="C36" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D36" t="str">
         <v>Links</v>
       </c>
       <c r="E36" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H36" t="str">
         <v>x</v>
@@ -4746,57 +4746,57 @@
         <v/>
       </c>
       <c r="J36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M36" t="str">
         <v/>
       </c>
       <c r="N36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O36" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Ongevallen motorrijtuigen</v>
+        <v/>
       </c>
       <c r="B37" t="str">
-        <v>13724</v>
+        <v>10632</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
       <c r="D37" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F37" t="str">
-        <v>06 Ongevallen motorrijtuigen         13724</v>
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I37" t="str">
         <v/>
       </c>
       <c r="J37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L37" t="str">
         <v>x</v>
@@ -4805,10 +4805,10 @@
         <v/>
       </c>
       <c r="N37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O37" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="38">
@@ -4816,7 +4816,7 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>13724</v>
+        <v>10630</v>
       </c>
       <c r="C38" t="str">
         <v/>
@@ -4825,25 +4825,25 @@
         <v>Links</v>
       </c>
       <c r="E38" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I38" t="str">
         <v/>
       </c>
       <c r="J38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L38" t="str">
         <v>x</v>
@@ -4852,30 +4852,30 @@
         <v/>
       </c>
       <c r="N38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O38" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B39" t="str">
-        <v>10637 10638 10636             10639</v>
+        <v>10633</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F39" t="str">
-        <v>07                        10637 10638 10636             10639</v>
+        <v/>
       </c>
       <c r="G39" t="str">
         <v>x</v>
@@ -4884,7 +4884,7 @@
         <v>x</v>
       </c>
       <c r="I39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J39" t="str">
         <v>x</v>
@@ -4893,7 +4893,7 @@
         <v>x</v>
       </c>
       <c r="L39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M39" t="str">
         <v/>
@@ -4907,37 +4907,37 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v/>
+        <v>- beroepsrisico partner</v>
       </c>
       <c r="B40" t="str">
-        <v>10637</v>
+        <v>13235</v>
       </c>
       <c r="C40" t="str">
         <v/>
       </c>
       <c r="D40" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E40" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v/>
+        <v>07 - beroepsrisico partner    13235</v>
       </c>
       <c r="G40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L40" t="str">
         <v/>
@@ -4946,7 +4946,7 @@
         <v/>
       </c>
       <c r="N40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O40" t="str">
         <v>x</v>
@@ -4957,7 +4957,7 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>10638</v>
+        <v>13235</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -4966,25 +4966,25 @@
         <v>Links</v>
       </c>
       <c r="E41" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L41" t="str">
         <v/>
@@ -4993,7 +4993,7 @@
         <v/>
       </c>
       <c r="N41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O41" t="str">
         <v>x</v>
@@ -5001,37 +5001,37 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Verzekerde(n)</v>
       </c>
       <c r="B42" t="str">
-        <v>10636</v>
+        <v>Naam              Geboortedatum                                 10630</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>07 Verzekerde(n)            Naam              Geboortedatum                                 10630</v>
       </c>
       <c r="G42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H42" t="str">
         <v>x</v>
       </c>
       <c r="I42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L42" t="str">
         <v/>
@@ -5043,7 +5043,7 @@
         <v>x</v>
       </c>
       <c r="O42" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="43">
@@ -5051,34 +5051,34 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>10639</v>
+        <v>10630</v>
       </c>
       <c r="C43" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D43" t="str">
         <v>Links</v>
       </c>
       <c r="E43" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H43" t="str">
         <v>x</v>
       </c>
       <c r="I43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K43" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L43" t="str">
         <v/>
@@ -5090,15 +5090,15 @@
         <v>x</v>
       </c>
       <c r="O43" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>- beroepsrisico partner</v>
+        <v>n/a</v>
       </c>
       <c r="B44" t="str">
-        <v>13235</v>
+        <v>10637 10638 10636             10639</v>
       </c>
       <c r="C44" t="str">
         <v/>
@@ -5110,31 +5110,31 @@
         <v/>
       </c>
       <c r="F44" t="str">
-        <v>07 - beroepsrisico partner    13235</v>
+        <v>08                        10637 10638 10636             10639</v>
       </c>
       <c r="G44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I44" t="str">
         <v/>
       </c>
       <c r="J44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M44" t="str">
         <v/>
       </c>
       <c r="N44" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O44" t="str">
         <v>x</v>
@@ -5145,7 +5145,7 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>13235</v>
+        <v>10637</v>
       </c>
       <c r="C45" t="str">
         <v/>
@@ -5154,34 +5154,34 @@
         <v>Links</v>
       </c>
       <c r="E45" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I45" t="str">
         <v/>
       </c>
       <c r="J45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M45" t="str">
         <v/>
       </c>
       <c r="N45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O45" t="str">
         <v>x</v>
@@ -5189,40 +5189,40 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Verzekerde(n)</v>
+        <v/>
       </c>
       <c r="B46" t="str">
-        <v>Naam              Geboortedatum                                 10630</v>
+        <v>10638</v>
       </c>
       <c r="C46" t="str">
         <v/>
       </c>
       <c r="D46" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E46" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F46" t="str">
-        <v>07 Verzekerde(n)            Naam              Geboortedatum                                 10630</v>
+        <v/>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I46" t="str">
         <v/>
       </c>
       <c r="J46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K46" t="str">
         <v>x</v>
       </c>
       <c r="L46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M46" t="str">
         <v/>
@@ -5231,7 +5231,7 @@
         <v>x</v>
       </c>
       <c r="O46" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="47">
@@ -5239,7 +5239,7 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>10630</v>
+        <v>10636</v>
       </c>
       <c r="C47" t="str">
         <v/>
@@ -5254,22 +5254,22 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I47" t="str">
         <v/>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K47" t="str">
         <v>x</v>
       </c>
       <c r="L47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M47" t="str">
         <v/>
@@ -5278,27 +5278,27 @@
         <v>x</v>
       </c>
       <c r="O47" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B48" t="str">
-        <v>10643 10644 10642             10645</v>
+        <v>10639</v>
       </c>
       <c r="C48" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D48" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E48" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F48" t="str">
-        <v>08                        10643 10644 10642             10645</v>
+        <v/>
       </c>
       <c r="G48" t="str">
         <v>x</v>
@@ -5307,7 +5307,7 @@
         <v>x</v>
       </c>
       <c r="I48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J48" t="str">
         <v>x</v>
@@ -5316,7 +5316,7 @@
         <v>x</v>
       </c>
       <c r="L48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M48" t="str">
         <v/>
@@ -5330,37 +5330,37 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v/>
+        <v>- beroepsrisico kinder(en)</v>
       </c>
       <c r="B49" t="str">
-        <v>10643</v>
+        <v>13236</v>
       </c>
       <c r="C49" t="str">
         <v/>
       </c>
       <c r="D49" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E49" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F49" t="str">
-        <v/>
+        <v>08 - beroepsrisico kinder(en) 13236</v>
       </c>
       <c r="G49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L49" t="str">
         <v/>
@@ -5369,7 +5369,7 @@
         <v/>
       </c>
       <c r="N49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O49" t="str">
         <v>x</v>
@@ -5380,7 +5380,7 @@
         <v/>
       </c>
       <c r="B50" t="str">
-        <v>10644</v>
+        <v>13236</v>
       </c>
       <c r="C50" t="str">
         <v/>
@@ -5389,25 +5389,25 @@
         <v>Links</v>
       </c>
       <c r="E50" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L50" t="str">
         <v/>
@@ -5416,7 +5416,7 @@
         <v/>
       </c>
       <c r="N50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O50" t="str">
         <v>x</v>
@@ -5424,22 +5424,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B51" t="str">
-        <v>10642</v>
+        <v>10643 10644 10642             10645</v>
       </c>
       <c r="C51" t="str">
         <v/>
       </c>
       <c r="D51" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E51" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F51" t="str">
-        <v/>
+        <v>09                        10643 10644 10642             10645</v>
       </c>
       <c r="G51" t="str">
         <v>x</v>
@@ -5448,7 +5448,7 @@
         <v>x</v>
       </c>
       <c r="I51" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J51" t="str">
         <v>x</v>
@@ -5457,7 +5457,7 @@
         <v>x</v>
       </c>
       <c r="L51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M51" t="str">
         <v/>
@@ -5474,10 +5474,10 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <v>10645</v>
+        <v>10643</v>
       </c>
       <c r="C52" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D52" t="str">
         <v>Links</v>
@@ -5495,7 +5495,7 @@
         <v>x</v>
       </c>
       <c r="I52" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J52" t="str">
         <v>x</v>
@@ -5504,7 +5504,7 @@
         <v>x</v>
       </c>
       <c r="L52" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M52" t="str">
         <v/>
@@ -5518,46 +5518,46 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>- beroepsrisico kinder(en)</v>
+        <v/>
       </c>
       <c r="B53" t="str">
-        <v>13236</v>
+        <v>10644</v>
       </c>
       <c r="C53" t="str">
         <v/>
       </c>
       <c r="D53" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F53" t="str">
-        <v>08 - beroepsrisico kinder(en) 13236</v>
+        <v/>
       </c>
       <c r="G53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I53" t="str">
         <v/>
       </c>
       <c r="J53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M53" t="str">
         <v/>
       </c>
       <c r="N53" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O53" t="str">
         <v>x</v>
@@ -5568,7 +5568,7 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>13236</v>
+        <v>10642</v>
       </c>
       <c r="C54" t="str">
         <v/>
@@ -5583,28 +5583,28 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I54" t="str">
         <v/>
       </c>
       <c r="J54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M54" t="str">
         <v/>
       </c>
       <c r="N54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O54" t="str">
         <v>x</v>
@@ -5612,49 +5612,49 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Verzekerde(n)</v>
+        <v/>
       </c>
       <c r="B55" t="str">
-        <v>Naam              Geboortedatum</v>
+        <v>10645</v>
       </c>
       <c r="C55" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D55" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E55" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F55" t="str">
-        <v>08 Verzekerde(n)          Naam              Geboortedatum</v>
+        <v/>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H55" t="str">
         <v>x</v>
       </c>
       <c r="I55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J55" t="str">
         <v>x</v>
       </c>
       <c r="K55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M55" t="str">
         <v/>
       </c>
       <c r="N55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O55" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="56">
@@ -5674,7 +5674,7 @@
         <v/>
       </c>
       <c r="F56" t="str">
-        <v>09                        10649 10650 10648             10651</v>
+        <v>10                        10649 10650 10648             10651</v>
       </c>
       <c r="G56" t="str">
         <v>x</v>
@@ -5683,7 +5683,7 @@
         <v>x</v>
       </c>
       <c r="I56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J56" t="str">
         <v>x</v>
@@ -5692,7 +5692,7 @@
         <v>x</v>
       </c>
       <c r="L56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M56" t="str">
         <v/>
@@ -5730,7 +5730,7 @@
         <v>x</v>
       </c>
       <c r="I57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J57" t="str">
         <v>x</v>
@@ -5739,7 +5739,7 @@
         <v>x</v>
       </c>
       <c r="L57" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M57" t="str">
         <v/>
@@ -5777,7 +5777,7 @@
         <v>x</v>
       </c>
       <c r="I58" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J58" t="str">
         <v>x</v>
@@ -5786,7 +5786,7 @@
         <v>x</v>
       </c>
       <c r="L58" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M58" t="str">
         <v/>
@@ -5824,7 +5824,7 @@
         <v>x</v>
       </c>
       <c r="I59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J59" t="str">
         <v>x</v>
@@ -5833,7 +5833,7 @@
         <v>x</v>
       </c>
       <c r="L59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M59" t="str">
         <v/>
@@ -5871,7 +5871,7 @@
         <v>x</v>
       </c>
       <c r="I60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J60" t="str">
         <v>x</v>
@@ -5880,7 +5880,7 @@
         <v>x</v>
       </c>
       <c r="L60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M60" t="str">
         <v/>
@@ -5894,10 +5894,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>n/a</v>
+        <v>Verzekerde(n)</v>
       </c>
       <c r="B61" t="str">
-        <v>10655 10656 10654             10657</v>
+        <v>Naam               Geboortedatum                                   10630</v>
       </c>
       <c r="C61" t="str">
         <v/>
@@ -5909,22 +5909,22 @@
         <v/>
       </c>
       <c r="F61" t="str">
-        <v>10                        10655 10656 10654             10657</v>
+        <v>10 Verzekerde(n)         Naam               Geboortedatum                                   10630</v>
       </c>
       <c r="G61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L61" t="str">
         <v/>
@@ -5933,7 +5933,7 @@
         <v/>
       </c>
       <c r="N61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O61" t="str">
         <v>x</v>
@@ -5944,7 +5944,7 @@
         <v/>
       </c>
       <c r="B62" t="str">
-        <v>10655</v>
+        <v>10630</v>
       </c>
       <c r="C62" t="str">
         <v/>
@@ -5953,25 +5953,25 @@
         <v>Links</v>
       </c>
       <c r="E62" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F62" t="str">
         <v/>
       </c>
       <c r="G62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L62" t="str">
         <v/>
@@ -5980,7 +5980,7 @@
         <v/>
       </c>
       <c r="N62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O62" t="str">
         <v>x</v>
@@ -5988,22 +5988,22 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B63" t="str">
-        <v>10656</v>
+        <v>10655 10656 10654             10657</v>
       </c>
       <c r="C63" t="str">
         <v/>
       </c>
       <c r="D63" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E63" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>11                        10655 10656 10654             10657</v>
       </c>
       <c r="G63" t="str">
         <v>x</v>
@@ -6012,7 +6012,7 @@
         <v>x</v>
       </c>
       <c r="I63" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J63" t="str">
         <v>x</v>
@@ -6021,7 +6021,7 @@
         <v>x</v>
       </c>
       <c r="L63" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M63" t="str">
         <v/>
@@ -6038,7 +6038,7 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <v>10654</v>
+        <v>10655</v>
       </c>
       <c r="C64" t="str">
         <v/>
@@ -6047,7 +6047,7 @@
         <v>Links</v>
       </c>
       <c r="E64" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F64" t="str">
         <v/>
@@ -6059,7 +6059,7 @@
         <v>x</v>
       </c>
       <c r="I64" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J64" t="str">
         <v>x</v>
@@ -6068,7 +6068,7 @@
         <v>x</v>
       </c>
       <c r="L64" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M64" t="str">
         <v/>
@@ -6085,10 +6085,10 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v>10657</v>
+        <v>10656</v>
       </c>
       <c r="C65" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D65" t="str">
         <v>Links</v>
@@ -6106,7 +6106,7 @@
         <v>x</v>
       </c>
       <c r="I65" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J65" t="str">
         <v>x</v>
@@ -6115,7 +6115,7 @@
         <v>x</v>
       </c>
       <c r="L65" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M65" t="str">
         <v/>
@@ -6129,46 +6129,46 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Verzekerde(n)</v>
+        <v/>
       </c>
       <c r="B66" t="str">
-        <v>Naam               Geboortedatum                                   10630</v>
+        <v>10654</v>
       </c>
       <c r="C66" t="str">
         <v/>
       </c>
       <c r="D66" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E66" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F66" t="str">
-        <v>10 Verzekerde(n)         Naam               Geboortedatum                                   10630</v>
+        <v/>
       </c>
       <c r="G66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I66" t="str">
         <v/>
       </c>
       <c r="J66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M66" t="str">
         <v/>
       </c>
       <c r="N66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O66" t="str">
         <v>x</v>
@@ -6179,43 +6179,43 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <v>10630</v>
+        <v>10657</v>
       </c>
       <c r="C67" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D67" t="str">
         <v>Links</v>
       </c>
       <c r="E67" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F67" t="str">
         <v/>
       </c>
       <c r="G67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I67" t="str">
         <v/>
       </c>
       <c r="J67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M67" t="str">
         <v/>
       </c>
       <c r="N67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O67" t="str">
         <v>x</v>
@@ -6238,7 +6238,7 @@
         <v/>
       </c>
       <c r="F68" t="str">
-        <v>11                        10661 10662 10660             10663</v>
+        <v>12                        10661 10662 10660             10663</v>
       </c>
       <c r="G68" t="str">
         <v>x</v>
@@ -6247,7 +6247,7 @@
         <v>x</v>
       </c>
       <c r="I68" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J68" t="str">
         <v>x</v>
@@ -6256,7 +6256,7 @@
         <v>x</v>
       </c>
       <c r="L68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M68" t="str">
         <v/>
@@ -6294,7 +6294,7 @@
         <v>x</v>
       </c>
       <c r="I69" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J69" t="str">
         <v>x</v>
@@ -6303,7 +6303,7 @@
         <v>x</v>
       </c>
       <c r="L69" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M69" t="str">
         <v/>
@@ -6341,7 +6341,7 @@
         <v>x</v>
       </c>
       <c r="I70" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J70" t="str">
         <v>x</v>
@@ -6350,7 +6350,7 @@
         <v>x</v>
       </c>
       <c r="L70" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M70" t="str">
         <v/>
@@ -6388,7 +6388,7 @@
         <v>x</v>
       </c>
       <c r="I71" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J71" t="str">
         <v>x</v>
@@ -6397,7 +6397,7 @@
         <v>x</v>
       </c>
       <c r="L71" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M71" t="str">
         <v/>
@@ -6435,7 +6435,7 @@
         <v>x</v>
       </c>
       <c r="I72" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J72" t="str">
         <v>x</v>
@@ -6444,7 +6444,7 @@
         <v>x</v>
       </c>
       <c r="L72" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M72" t="str">
         <v/>
@@ -6473,7 +6473,7 @@
         <v/>
       </c>
       <c r="F73" t="str">
-        <v>12                        10667 10668 10666             10669</v>
+        <v>13                        10667 10668 10666             10669</v>
       </c>
       <c r="G73" t="str">
         <v>x</v>
@@ -6482,7 +6482,7 @@
         <v>x</v>
       </c>
       <c r="I73" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J73" t="str">
         <v>x</v>
@@ -6491,7 +6491,7 @@
         <v>x</v>
       </c>
       <c r="L73" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M73" t="str">
         <v/>
@@ -6529,7 +6529,7 @@
         <v>x</v>
       </c>
       <c r="I74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J74" t="str">
         <v>x</v>
@@ -6538,7 +6538,7 @@
         <v>x</v>
       </c>
       <c r="L74" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M74" t="str">
         <v/>
@@ -6576,7 +6576,7 @@
         <v>x</v>
       </c>
       <c r="I75" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J75" t="str">
         <v>x</v>
@@ -6585,7 +6585,7 @@
         <v>x</v>
       </c>
       <c r="L75" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M75" t="str">
         <v/>
@@ -6623,7 +6623,7 @@
         <v>x</v>
       </c>
       <c r="I76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J76" t="str">
         <v>x</v>
@@ -6632,7 +6632,7 @@
         <v>x</v>
       </c>
       <c r="L76" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M76" t="str">
         <v/>
@@ -6670,7 +6670,7 @@
         <v>x</v>
       </c>
       <c r="I77" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J77" t="str">
         <v>x</v>
@@ -6679,7 +6679,7 @@
         <v>x</v>
       </c>
       <c r="L77" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M77" t="str">
         <v/>
@@ -6708,7 +6708,7 @@
         <v/>
       </c>
       <c r="F78" t="str">
-        <v>13                        10673 10674 10672             10675</v>
+        <v>14                        10673 10674 10672             10675</v>
       </c>
       <c r="G78" t="str">
         <v>x</v>
@@ -6717,7 +6717,7 @@
         <v>x</v>
       </c>
       <c r="I78" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J78" t="str">
         <v>x</v>
@@ -6726,7 +6726,7 @@
         <v>x</v>
       </c>
       <c r="L78" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M78" t="str">
         <v/>
@@ -6764,7 +6764,7 @@
         <v>x</v>
       </c>
       <c r="I79" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J79" t="str">
         <v>x</v>
@@ -6773,7 +6773,7 @@
         <v>x</v>
       </c>
       <c r="L79" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M79" t="str">
         <v/>
@@ -6811,7 +6811,7 @@
         <v>x</v>
       </c>
       <c r="I80" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J80" t="str">
         <v>x</v>
@@ -6820,7 +6820,7 @@
         <v>x</v>
       </c>
       <c r="L80" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M80" t="str">
         <v/>
@@ -6858,7 +6858,7 @@
         <v>x</v>
       </c>
       <c r="I81" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J81" t="str">
         <v>x</v>
@@ -6867,7 +6867,7 @@
         <v>x</v>
       </c>
       <c r="L81" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M81" t="str">
         <v/>
@@ -6905,7 +6905,7 @@
         <v>x</v>
       </c>
       <c r="I82" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J82" t="str">
         <v>x</v>
@@ -6914,7 +6914,7 @@
         <v>x</v>
       </c>
       <c r="L82" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M82" t="str">
         <v/>
@@ -6943,7 +6943,7 @@
         <v/>
       </c>
       <c r="F83" t="str">
-        <v>14                        10679 10680 10678             10681</v>
+        <v>15                        10679 10680 10678             10681</v>
       </c>
       <c r="G83" t="str">
         <v>x</v>
@@ -6952,7 +6952,7 @@
         <v>x</v>
       </c>
       <c r="I83" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J83" t="str">
         <v>x</v>
@@ -6961,7 +6961,7 @@
         <v>x</v>
       </c>
       <c r="L83" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M83" t="str">
         <v/>
@@ -6999,7 +6999,7 @@
         <v>x</v>
       </c>
       <c r="I84" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J84" t="str">
         <v>x</v>
@@ -7008,7 +7008,7 @@
         <v>x</v>
       </c>
       <c r="L84" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M84" t="str">
         <v/>
@@ -7046,7 +7046,7 @@
         <v>x</v>
       </c>
       <c r="I85" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J85" t="str">
         <v>x</v>
@@ -7055,7 +7055,7 @@
         <v>x</v>
       </c>
       <c r="L85" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M85" t="str">
         <v/>
@@ -7093,7 +7093,7 @@
         <v>x</v>
       </c>
       <c r="I86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J86" t="str">
         <v>x</v>
@@ -7102,7 +7102,7 @@
         <v>x</v>
       </c>
       <c r="L86" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M86" t="str">
         <v/>
@@ -7140,7 +7140,7 @@
         <v>x</v>
       </c>
       <c r="I87" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J87" t="str">
         <v>x</v>
@@ -7149,7 +7149,7 @@
         <v>x</v>
       </c>
       <c r="L87" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M87" t="str">
         <v/>
@@ -7181,7 +7181,7 @@
         <v>16 Beroepswerkzaamheden</v>
       </c>
       <c r="G88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H88" t="str">
         <v/>
@@ -7190,7 +7190,7 @@
         <v/>
       </c>
       <c r="J88" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K88" t="str">
         <v/>
@@ -7234,7 +7234,7 @@
         <v/>
       </c>
       <c r="I89" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J89" t="str">
         <v/>
@@ -7243,7 +7243,7 @@
         <v/>
       </c>
       <c r="L89" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M89" t="str">
         <v/>
@@ -7281,7 +7281,7 @@
         <v/>
       </c>
       <c r="I90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J90" t="str">
         <v/>
@@ -7290,7 +7290,7 @@
         <v/>
       </c>
       <c r="L90" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M90" t="str">
         <v/>
@@ -7328,7 +7328,7 @@
         <v/>
       </c>
       <c r="I91" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J91" t="str">
         <v/>
@@ -7337,7 +7337,7 @@
         <v/>
       </c>
       <c r="L91" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M91" t="str">
         <v/>
@@ -7375,7 +7375,7 @@
         <v/>
       </c>
       <c r="I92" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J92" t="str">
         <v/>
@@ -7384,7 +7384,7 @@
         <v/>
       </c>
       <c r="L92" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M92" t="str">
         <v/>
@@ -7422,7 +7422,7 @@
         <v/>
       </c>
       <c r="I93" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J93" t="str">
         <v/>
@@ -7431,7 +7431,7 @@
         <v/>
       </c>
       <c r="L93" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M93" t="str">
         <v/>
@@ -7445,10 +7445,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>met een risico</v>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B94" t="str">
-        <v>Verzekeringsnemer 12577</v>
+        <v xml:space="preserve">                Verzekerd bedrag</v>
       </c>
       <c r="C94" t="str">
         <v/>
@@ -7460,57 +7460,57 @@
         <v/>
       </c>
       <c r="F94" t="str">
-        <v>17 met een risico         Verzekeringsnemer 12577</v>
+        <v>17 Verzekerde rubrieken                              Verzekerd bedrag</v>
       </c>
       <c r="G94" t="str">
         <v>x</v>
       </c>
       <c r="H94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="O94" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v/>
+        <v>met een risico</v>
       </c>
       <c r="B95" t="str">
-        <v>12577</v>
+        <v>Verzekeringsnemer 12577</v>
       </c>
       <c r="C95" t="str">
         <v/>
       </c>
       <c r="D95" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E95" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F95" t="str">
-        <v/>
+        <v>17 met een risico         Verzekeringsnemer 12577</v>
       </c>
       <c r="G95" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H95" t="str">
         <v/>
@@ -7519,7 +7519,7 @@
         <v/>
       </c>
       <c r="J95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K95" t="str">
         <v/>
@@ -7539,25 +7539,25 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Partner</v>
+        <v/>
       </c>
       <c r="B96" t="str">
-        <v>13235</v>
+        <v>12577</v>
       </c>
       <c r="C96" t="str">
         <v/>
       </c>
       <c r="D96" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E96" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F96" t="str">
-        <v>18                        Partner           13235</v>
+        <v/>
       </c>
       <c r="G96" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H96" t="str">
         <v/>
@@ -7566,7 +7566,7 @@
         <v/>
       </c>
       <c r="J96" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K96" t="str">
         <v/>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v/>
+        <v>Partner</v>
       </c>
       <c r="B97" t="str">
         <v>13235</v>
@@ -7595,16 +7595,16 @@
         <v/>
       </c>
       <c r="D97" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E97" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F97" t="str">
-        <v/>
+        <v>18                        Partner           13235</v>
       </c>
       <c r="G97" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H97" t="str">
         <v/>
@@ -7613,7 +7613,7 @@
         <v/>
       </c>
       <c r="J97" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K97" t="str">
         <v/>
@@ -7633,25 +7633,25 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Kind(eren)</v>
+        <v/>
       </c>
       <c r="B98" t="str">
-        <v>13236</v>
+        <v>13235</v>
       </c>
       <c r="C98" t="str">
         <v/>
       </c>
       <c r="D98" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E98" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F98" t="str">
-        <v>19                        Kind(eren)        13236</v>
+        <v/>
       </c>
       <c r="G98" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H98" t="str">
         <v/>
@@ -7660,7 +7660,7 @@
         <v/>
       </c>
       <c r="J98" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K98" t="str">
         <v/>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v/>
+        <v>Kind(eren)</v>
       </c>
       <c r="B99" t="str">
         <v>13236</v>
@@ -7689,16 +7689,16 @@
         <v/>
       </c>
       <c r="D99" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E99" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F99" t="str">
-        <v/>
+        <v>19                        Kind(eren)        13236</v>
       </c>
       <c r="G99" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H99" t="str">
         <v/>
@@ -7707,7 +7707,7 @@
         <v/>
       </c>
       <c r="J99" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K99" t="str">
         <v/>
@@ -7727,49 +7727,49 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Verzekerde rubrieken</v>
+        <v/>
       </c>
       <c r="B100" t="str">
-        <v xml:space="preserve">                Verzekerd bedrag</v>
+        <v>13236</v>
       </c>
       <c r="C100" t="str">
         <v/>
       </c>
       <c r="D100" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E100" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F100" t="str">
-        <v>21 Verzekerde rubrieken                              Verzekerd bedrag</v>
+        <v/>
       </c>
       <c r="G100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J100" t="str">
         <v>x</v>
       </c>
       <c r="K100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="O100" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
   </sheetData>
